--- a/app/src/pieces/excel/excel_templates/equipment_template.xlsx
+++ b/app/src/pieces/excel/excel_templates/equipment_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitakhaurov/PycharmProjects/vzyat_tuzi.bez_shansov.nas_pyatero/app/src/pieces/excel/excel_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A182D611-1FEA-634F-A59B-6DF0EC1A80A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372D5BC5-78ED-A144-959A-16CC0B21422D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{01E7BF9C-1AD1-704F-8AF4-EE00BA31710C}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>Средняя цена (рубли)</t>
   </si>
   <si>
-    <t>Дилдо</t>
+    <t>Токарный станок</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
